--- a/weather_averages.xlsx
+++ b/weather_averages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,49 +463,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Fürstenfeldbruck</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>15,670249</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>67,75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31249997</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Heidelberg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>12,36275</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>72,125</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,49 +517,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Ratingen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>17,876999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>85,708336</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Chemnitz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>17,716583</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>64,5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,22 +571,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Gießen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>19,814249</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,76 +598,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Halle</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17,169584</t>
+          <t>18,894</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78,916664</t>
+          <t>64,791664</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,008333334</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Halle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21,585</t>
+          <t>18,894</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58,541668</t>
+          <t>64,791664</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,008333334</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21,585</t>
+          <t>12,669</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>58,541668</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -689,17 +689,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>4,3184166</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>74,875</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,033333335</t>
         </is>
       </c>
     </row>
@@ -716,152 +716,152 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>4,3184166</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>74,875</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,033333335</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Heidelberg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>12,36275</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>72,125</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Heidelberg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>12,36275</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>72,125</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>12,669</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,3059163</t>
+          <t>12,669</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>75,208336</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,0625</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>München</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15,003499</t>
+          <t>4,3184166</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>78,375</t>
+          <t>74,875</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,033333335</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15,003499</t>
+          <t>17,3785</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>78,375</t>
+          <t>78,541664</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17,345167</t>
+          <t>15,08475</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>78,541664</t>
+          <t>78,583336</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -922,22 +922,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>Gießen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17,345167</t>
+          <t>19,814249</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>78,541664</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,49 +949,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Halle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17,781166</t>
+          <t>18,894</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>65,208336</t>
+          <t>64,791664</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,008333334</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17,781166</t>
+          <t>17,215418</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>65,208336</t>
+          <t>78,833336</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,27 +1003,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17,781166</t>
+          <t>10,069</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>65,208336</t>
+          <t>90,375</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47916672</t>
         </is>
       </c>
     </row>
@@ -1040,39 +1040,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9,954417</t>
+          <t>10,069</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>90,375</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,53333336</t>
+          <t>0,47916672</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Landau</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12,691917</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>73,083336</t>
+          <t>78,041664</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,76 +1084,76 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>München</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12,691917</t>
+          <t>4,3184166</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>73,083336</t>
+          <t>74,875</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,033333335</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>München</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12,691917</t>
+          <t>4,3184166</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>73,083336</t>
+          <t>74,875</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,033333335</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12,691917</t>
+          <t>17,215418</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>73,083336</t>
+          <t>78,833336</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,49 +1165,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Fürstenfeldbruck</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9,954417</t>
+          <t>15,670249</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>67,75</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,53333336</t>
+          <t>0,31249997</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Gießen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12,691917</t>
+          <t>19,814249</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>73,083336</t>
+          <t>73,333336</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,54 +1219,54 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Halle</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18,829416</t>
+          <t>21,664164</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>64,5</t>
+          <t>58,666668</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,008333334</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Halle</t>
+          <t>Ratingen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18,829416</t>
+          <t>17,876999</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>64,5</t>
+          <t>85,708336</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,008333334</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18,829416</t>
+          <t>18,894</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>64,5</t>
+          <t>64,791664</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,675 +1300,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Halle</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18,829416</t>
+          <t>18,15875</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>64,5</t>
+          <t>84,208336</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,008333334</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21,912918</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>75,0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0,54583335</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>21,912918</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>75,0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0,54583335</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>21,912918</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>75,0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0,54583335</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>20,571083</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>75,208336</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0,008333334</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>12,339833</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>72,666664</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>12,339833</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>72,666664</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>12,339833</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>72,666664</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>12,339833</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>72,666664</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Gießen</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>19,849669</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>73,25</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Gießen</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>19,849669</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>73,25</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Gießen</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>19,849669</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>73,25</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Gießen</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>19,849669</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>73,25</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Neumünster</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>14,339084</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>77,416664</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Landau</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>11,71875</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>78,125</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Landau</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2024-03-20</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>11,71875</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>78,125</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Landau</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>16,491667</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>76,208336</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0,2041667</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Fürstenfeldbruck</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-10-14</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>16,003584</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>66,583336</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0,32500002</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Fürstenfeldbruck</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>18,253584</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>54,75</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Fürstenfeldbruck</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023-10-13</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>19,411917</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>46,375</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Fürstenfeldbruck</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-10-14</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>16,003584</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>66,583336</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0,32500002</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ratingen</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>18,047832</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>85,916664</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ratingen</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>18,047832</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>85,916664</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ratingen</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>18,047832</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>85,916664</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Ratingen</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>18,047832</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>85,916664</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0,05</t>
+          <t>0,125</t>
         </is>
       </c>
     </row>
